--- a/biology/Zoologie/Asaccus/Asaccus.xlsx
+++ b/biology/Zoologie/Asaccus/Asaccus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Asaccus est un genre de geckos de la famille des Phyllodactylidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Asaccus est un genre de geckos de la famille des Phyllodactylidae.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les espèces de ce genre se rencontrent au Moyen-Orient.
 </t>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (03 mars 2017)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (03 mars 2017) :
 Asaccus andersoni Torki, Fathinia, Rostami, Gharzi &amp; Nazari-Serenjeh, 2011
 Asaccus barani Torki, Ahmadzadeh, Ilgaz, Avci &amp; Kumlutas, 2011
 Asaccus caudivolvulus Arnold &amp; Gardner, 1994
@@ -590,7 +606,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Dixon &amp; Anderson, 1973 : A new genus and species of gecko (Sauria: Gekkonidae) from Iran and Iraq. Bulletin of the Southern California Academy of Sciences, vol. 72, p. 155-160 (texte intégral).</t>
         </is>
